--- a/ApolloQA/Data/RatingManual/GA/VA00050.LimitFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/GA/VA00050.LimitFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00050.LimitFactors" sheetId="1" r:id="Rb9b3b024549c4f35"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00050.LimitFactors" sheetId="1" r:id="R6d12e0c1cda34d7e"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -12,23 +12,83 @@
   <x:sheetData>
     <x:row>
       <x:c t="str">
-        <x:v>Limit</x:v>
+        <x:v>Vehicle Type</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Limit Factor</x:v>
+        <x:v>GVW/GCW Lower Bound</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>GVW/GCW Upper Bound</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Size Type Factor</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>$500</x:v>
+        <x:v>All Other</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.3000</x:v>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>$1,000</x:v>
+        <x:v>All Other</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>20,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.7000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>All Other</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>20,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>45,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.5000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>All Other</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>45,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.5000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>SemiTrailer</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
       </x:c>
       <x:c t="str">
         <x:v>0.4000</x:v>
@@ -36,18 +96,58 @@
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>$2,000</x:v>
+        <x:v>Tractor</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.6510</x:v>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>45,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.5000</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>$5,000</x:v>
+        <x:v>Tractor</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0000</x:v>
+        <x:v>45,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.5000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Trailer</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.4000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Trailer</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.4000</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
